--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,16 +49,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -405,13 +405,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="1.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="9.26953125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="9" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.08984375" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="16.08984375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="1.81640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="13"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="11.54296875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="9.26953125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10.08984375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="16.08984375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -551,6 +551,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>